--- a/data/trans_orig/P52_2-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P52_2-Provincia-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>43537</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>34789</v>
+        <v>34559</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>51797</v>
+        <v>51096</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6594285525899093</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5269234527917035</v>
+        <v>0.5234330653886999</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7845235404686054</v>
+        <v>0.7739196560282573</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>17</v>
@@ -763,19 +763,19 @@
         <v>18346</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>12943</v>
+        <v>13624</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>22267</v>
+        <v>22347</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7285274604732723</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5139727675345261</v>
+        <v>0.5410314873154787</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8842346349780008</v>
+        <v>0.8874110866562811</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>58</v>
@@ -784,19 +784,19 @@
         <v>61883</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>52310</v>
+        <v>52348</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>70423</v>
+        <v>70527</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6785067174125768</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5735462793682797</v>
+        <v>0.5739633852590886</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7721351463884341</v>
+        <v>0.7732803499787699</v>
       </c>
     </row>
     <row r="5">
@@ -816,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4545</v>
+        <v>4624</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01354819715972222</v>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.06884547910223347</v>
+        <v>0.07003690698245714</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -850,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>4697</v>
+        <v>4781</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.009807548481171841</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.05150223452523016</v>
+        <v>0.052423981877663</v>
       </c>
     </row>
     <row r="6">
@@ -876,19 +876,19 @@
         <v>3540</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8504</v>
+        <v>9235</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.05362232297390897</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01423756842419502</v>
+        <v>0.01425919765246392</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.128799336270816</v>
+        <v>0.1398752739478641</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>0</v>
@@ -910,19 +910,19 @@
         <v>3540</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>988</v>
+        <v>954</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>9164</v>
+        <v>10008</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.03881723346949355</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01083751549561672</v>
+        <v>0.01046349002211958</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1004783056577024</v>
+        <v>0.1097329234661671</v>
       </c>
     </row>
     <row r="7">
@@ -939,19 +939,19 @@
         <v>18051</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>10786</v>
+        <v>11350</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>26236</v>
+        <v>27085</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2734009272764595</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1633714605022479</v>
+        <v>0.1719142630203368</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3973756537055281</v>
+        <v>0.410238244688439</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -960,19 +960,19 @@
         <v>6836</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2915</v>
+        <v>2835</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>12239</v>
+        <v>11558</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2714725395267277</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1157653650219993</v>
+        <v>0.1125889133437189</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4860272324654738</v>
+        <v>0.458968512684521</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>23</v>
@@ -981,19 +981,19 @@
         <v>24887</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>16766</v>
+        <v>17112</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>33702</v>
+        <v>34545</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2728685006367578</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1838257762902922</v>
+        <v>0.1876248795907509</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3695200128463129</v>
+        <v>0.3787619354183178</v>
       </c>
     </row>
     <row r="8">
@@ -1085,19 +1085,19 @@
         <v>40460</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>30222</v>
+        <v>30388</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>49795</v>
+        <v>50405</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4542697145176994</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3393187650534656</v>
+        <v>0.3411845215570965</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5590740816714374</v>
+        <v>0.5659263692330699</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>11</v>
@@ -1106,7 +1106,7 @@
         <v>11108</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>6107</v>
+        <v>6702</v>
       </c>
       <c r="M9" s="5" t="n">
         <v>16192</v>
@@ -1115,10 +1115,10 @@
         <v>0.4710886467301519</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2590007253406079</v>
+        <v>0.2842088099369339</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.6866977671958091</v>
+        <v>0.6866804501635076</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>51</v>
@@ -1127,19 +1127,19 @@
         <v>51568</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>40019</v>
+        <v>40714</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>62804</v>
+        <v>62036</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4577903393108849</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3552640030274749</v>
+        <v>0.3614374157728157</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5575325963371817</v>
+        <v>0.5507202762435154</v>
       </c>
     </row>
     <row r="10">
@@ -1156,19 +1156,19 @@
         <v>2857</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>903</v>
+        <v>914</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7081</v>
+        <v>7685</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03208102767500759</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01013326104095503</v>
+        <v>0.01026216967825861</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07950185926413693</v>
+        <v>0.08627774727681851</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>5995</v>
+        <v>5993</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05255634728728671</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2542479016656525</v>
+        <v>0.2541575291835741</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>4</v>
@@ -1198,19 +1198,19 @@
         <v>4097</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>961</v>
+        <v>966</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>9750</v>
+        <v>9364</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03636702615367536</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.008534370259149509</v>
+        <v>0.008576862075924315</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08655135054354171</v>
+        <v>0.08312623264673225</v>
       </c>
     </row>
     <row r="11">
@@ -1243,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>5122</v>
+        <v>4193</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.04386088940572575</v>
@@ -1252,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.217223359693221</v>
+        <v>0.1778127167062148</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1</v>
@@ -1264,7 +1264,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>5110</v>
+        <v>5088</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.009181185389322029</v>
@@ -1273,7 +1273,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.04536356843006488</v>
+        <v>0.04517094746732103</v>
       </c>
     </row>
     <row r="12">
@@ -1290,19 +1290,19 @@
         <v>45749</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>36104</v>
+        <v>35841</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>55698</v>
+        <v>55398</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.513649257807293</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4053584474044092</v>
+        <v>0.4024070603916043</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.6253470641313401</v>
+        <v>0.621979461776441</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>10</v>
@@ -1311,19 +1311,19 @@
         <v>10198</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>6017</v>
+        <v>5173</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>14485</v>
+        <v>14486</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.4324941165768356</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2551765728376977</v>
+        <v>0.2194011297889998</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6143079135670219</v>
+        <v>0.6143424281573183</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>51</v>
@@ -1332,19 +1332,19 @@
         <v>55947</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>44980</v>
+        <v>44799</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>67468</v>
+        <v>66250</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.4966614491461177</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.39930036877301</v>
+        <v>0.3976985858060871</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5989398575788208</v>
+        <v>0.5881290575337679</v>
       </c>
     </row>
     <row r="13">
@@ -1436,19 +1436,19 @@
         <v>7536</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3506</v>
+        <v>3603</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>12403</v>
+        <v>13088</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2529009964674513</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1176451773202905</v>
+        <v>0.1208898649053706</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4162199494421741</v>
+        <v>0.4391803196582561</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>7</v>
@@ -1457,19 +1457,19 @@
         <v>7748</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>4155</v>
+        <v>4129</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>11305</v>
+        <v>10948</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5655357597778691</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3032860578247</v>
+        <v>0.301350513317354</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8251805053275146</v>
+        <v>0.7991029979176306</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>15</v>
@@ -1478,19 +1478,19 @@
         <v>15284</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>9640</v>
+        <v>9260</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>21889</v>
+        <v>21518</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.351362989330125</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2216036304231864</v>
+        <v>0.2128719739425841</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5032074982573916</v>
+        <v>0.494675150785127</v>
       </c>
     </row>
     <row r="15">
@@ -1557,7 +1557,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>3957</v>
+        <v>4791</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03178114911143922</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1327696443499076</v>
+        <v>0.1607676412893673</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -1591,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>4905</v>
+        <v>4752</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02177191263420507</v>
@@ -1600,7 +1600,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1127547327142869</v>
+        <v>0.1092463645348769</v>
       </c>
     </row>
     <row r="17">
@@ -1617,19 +1617,19 @@
         <v>21316</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>16286</v>
+        <v>16029</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>25418</v>
+        <v>26042</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7153178544211095</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.546494873543464</v>
+        <v>0.5378979575357545</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8529498088966283</v>
+        <v>0.8738983124565179</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>6</v>
@@ -1638,19 +1638,19 @@
         <v>5952</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2395</v>
+        <v>2752</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>9545</v>
+        <v>9571</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.434464240222131</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1748194946724853</v>
+        <v>0.200897002082369</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6967139421753</v>
+        <v>0.698649486682646</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>27</v>
@@ -1659,19 +1659,19 @@
         <v>27268</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>19997</v>
+        <v>21524</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>32874</v>
+        <v>33641</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6268650980356699</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4597147078803169</v>
+        <v>0.4948168192837468</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7557384724616621</v>
+        <v>0.7733688053252267</v>
       </c>
     </row>
     <row r="18">
@@ -1763,19 +1763,19 @@
         <v>34200</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>25202</v>
+        <v>25709</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>44104</v>
+        <v>44278</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4798998993616322</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3536400801405002</v>
+        <v>0.3607547987289889</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6188730862643965</v>
+        <v>0.6213078952480796</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>10</v>
@@ -1787,16 +1787,16 @@
         <v>5877</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>16147</v>
+        <v>16401</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3888436946026687</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2130069440431624</v>
+        <v>0.2130100961435378</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5852623346641252</v>
+        <v>0.594449170672172</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>39</v>
@@ -1805,19 +1805,19 @@
         <v>44929</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>34681</v>
+        <v>34779</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>55443</v>
+        <v>56211</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4544865197231518</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.350825360908311</v>
+        <v>0.3518131018030974</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5608482111840591</v>
+        <v>0.5686168642563781</v>
       </c>
     </row>
     <row r="20">
@@ -1837,7 +1837,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>4213</v>
+        <v>3998</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01320622295429029</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.05911668851101531</v>
+        <v>0.05609869178979219</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2</v>
@@ -1858,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>6373</v>
+        <v>5939</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.06929780967532738</v>
@@ -1867,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.230996553229229</v>
+        <v>0.2152617184046918</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>3</v>
@@ -1876,19 +1876,19 @@
         <v>2853</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>893</v>
+        <v>898</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>7675</v>
+        <v>7717</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02886113402421536</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.009037930418821269</v>
+        <v>0.009086558377515848</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.07763959248715536</v>
+        <v>0.07806283472772479</v>
       </c>
     </row>
     <row r="21">
@@ -1908,7 +1908,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>6288</v>
+        <v>7138</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.02655888822400078</v>
@@ -1917,7 +1917,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.08823163565293722</v>
+        <v>0.1001624878847125</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>2</v>
@@ -1929,7 +1929,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>6704</v>
+        <v>6714</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.06971708266215798</v>
@@ -1938,7 +1938,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2429963295468472</v>
+        <v>0.243350672111253</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>4</v>
@@ -1947,19 +1947,19 @@
         <v>3816</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>982</v>
+        <v>1006</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>9178</v>
+        <v>9022</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.03860414733260945</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.009930196247028386</v>
+        <v>0.01017686803800585</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.09283711719310912</v>
+        <v>0.09126333395461755</v>
       </c>
     </row>
     <row r="22">
@@ -1976,19 +1976,19 @@
         <v>34231</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>25293</v>
+        <v>25030</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>43140</v>
+        <v>43198</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4803349894600767</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3549181006099513</v>
+        <v>0.3512232417249156</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6053523583920866</v>
+        <v>0.606159935784647</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>12</v>
@@ -1997,19 +1997,19 @@
         <v>13026</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>8036</v>
+        <v>7741</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>18649</v>
+        <v>18778</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.472141413059846</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2912727361578846</v>
+        <v>0.2805729814541219</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6759460575230978</v>
+        <v>0.6806196811437019</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>44</v>
@@ -2018,19 +2018,19 @@
         <v>47258</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>36902</v>
+        <v>36567</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>57405</v>
+        <v>57265</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4780481989200234</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.373287607145572</v>
+        <v>0.3699060209114714</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5806913049284382</v>
+        <v>0.5792770883248932</v>
       </c>
     </row>
     <row r="23">
@@ -2122,19 +2122,19 @@
         <v>16151</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>10148</v>
+        <v>9842</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>22318</v>
+        <v>23241</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3772476870254894</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2370315100697356</v>
+        <v>0.2298812539601804</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.5212788978101847</v>
+        <v>0.5428470172538665</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>8</v>
@@ -2143,19 +2143,19 @@
         <v>8026</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>4926</v>
+        <v>4189</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>10024</v>
+        <v>10032</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.7354667093155286</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.4513611894565166</v>
+        <v>0.3838986596816837</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.9185707835004834</v>
+        <v>0.9192357307665815</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>24</v>
@@ -2164,19 +2164,19 @@
         <v>24178</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>16743</v>
+        <v>17528</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>30803</v>
+        <v>31428</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.4500097309460859</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3116229773020112</v>
+        <v>0.3262413987066428</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5733232673161369</v>
+        <v>0.5849663840460564</v>
       </c>
     </row>
     <row r="25">
@@ -2196,7 +2196,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>5908</v>
+        <v>5275</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02479902562871051</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1379828707966876</v>
+        <v>0.1232125188476793</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>0</v>
@@ -2230,7 +2230,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>6019</v>
+        <v>6291</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01976180627489506</v>
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1120326896068596</v>
+        <v>0.1171009342888575</v>
       </c>
     </row>
     <row r="26">
@@ -2303,19 +2303,19 @@
         <v>25601</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>19387</v>
+        <v>18512</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>31470</v>
+        <v>31868</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.5979532873458001</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.4528279165887951</v>
+        <v>0.4323831900226926</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.7350291866131929</v>
+        <v>0.7443419127267197</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>3</v>
@@ -2324,19 +2324,19 @@
         <v>2887</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>889</v>
+        <v>881</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>5987</v>
+        <v>6724</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2645332906844715</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.08142921649951662</v>
+        <v>0.08076426923341855</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.5486388105434838</v>
+        <v>0.6161013403183163</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>28</v>
@@ -2345,19 +2345,19 @@
         <v>28488</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>21951</v>
+        <v>21907</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>35974</v>
+        <v>35423</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.530228462779019</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.4085740876212928</v>
+        <v>0.4077394926150715</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.6695627468508515</v>
+        <v>0.6593099410109471</v>
       </c>
     </row>
     <row r="28">
@@ -2449,19 +2449,19 @@
         <v>11069</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>5985</v>
+        <v>5823</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>18347</v>
+        <v>18218</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2495394211047137</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1349214816337628</v>
+        <v>0.1312680627976364</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4136299666474801</v>
+        <v>0.4107145222634968</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>4</v>
@@ -2470,19 +2470,19 @@
         <v>3996</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1026</v>
+        <v>945</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>7442</v>
+        <v>7595</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3421597539105057</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.08782485620721431</v>
+        <v>0.08092020612531596</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.6371558679663157</v>
+        <v>0.6502288679479667</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>14</v>
@@ -2491,19 +2491,19 @@
         <v>15065</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>8866</v>
+        <v>8405</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>23088</v>
+        <v>21684</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2688444105675969</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.158214424440686</v>
+        <v>0.1499849154171264</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4120195785948551</v>
+        <v>0.3869603651788946</v>
       </c>
     </row>
     <row r="30">
@@ -2536,7 +2536,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>4254</v>
+        <v>4120</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.08138425633162918</v>
@@ -2545,7 +2545,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3641997935790059</v>
+        <v>0.3527353302985754</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1</v>
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>4811</v>
+        <v>4796</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.01696303784851476</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.08585555887813466</v>
+        <v>0.08558907376278935</v>
       </c>
     </row>
     <row r="31">
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>4907</v>
+        <v>4837</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.02124985949908014</v>
@@ -2595,7 +2595,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1106266410294721</v>
+        <v>0.1090470240365953</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>1</v>
@@ -2607,7 +2607,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>4294</v>
+        <v>4243</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.08424161302295757</v>
@@ -2616,7 +2616,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3676750958566528</v>
+        <v>0.3632888994897376</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>2</v>
@@ -2628,7 +2628,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>6738</v>
+        <v>6024</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.03437932147776719</v>
@@ -2637,7 +2637,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1202498057575508</v>
+        <v>0.1074917548115774</v>
       </c>
     </row>
     <row r="32">
@@ -2654,19 +2654,19 @@
         <v>32346</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>25155</v>
+        <v>25278</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>37579</v>
+        <v>37906</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.7292107193962062</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.5670960214669942</v>
+        <v>0.5698657471762215</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8471845650613653</v>
+        <v>0.8545750845625798</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>5</v>
@@ -2675,19 +2675,19 @@
         <v>5749</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2706</v>
+        <v>2213</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>9062</v>
+        <v>9232</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.4922143767349075</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2316989693760366</v>
+        <v>0.189508701071706</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.7758595531856712</v>
+        <v>0.7904178867461096</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>36</v>
@@ -2696,19 +2696,19 @@
         <v>38095</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>30252</v>
+        <v>30999</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>44495</v>
+        <v>44896</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.6798132301061212</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.5398585716026152</v>
+        <v>0.5531914316693047</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.7940357260151808</v>
+        <v>0.8011838237318865</v>
       </c>
     </row>
     <row r="33">
@@ -2800,19 +2800,19 @@
         <v>36696</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>27649</v>
+        <v>26735</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>46203</v>
+        <v>45763</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.4408995515195943</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.332195872749214</v>
+        <v>0.3212224043923204</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.5551195335513461</v>
+        <v>0.5498368267309508</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>18</v>
@@ -2821,19 +2821,19 @@
         <v>19971</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>13527</v>
+        <v>13266</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>26620</v>
+        <v>26107</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.5106034711301783</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.3458481412518984</v>
+        <v>0.3391717796441634</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.6805923596619925</v>
+        <v>0.6674886091125057</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>51</v>
@@ -2842,19 +2842,19 @@
         <v>56667</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>45290</v>
+        <v>44808</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>70192</v>
+        <v>67747</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.4631838548109556</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.3701893043351308</v>
+        <v>0.3662498988228395</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.5737349394854392</v>
+        <v>0.5537466746794065</v>
       </c>
     </row>
     <row r="35">
@@ -2874,7 +2874,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>5392</v>
+        <v>5820</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.01258465643597546</v>
@@ -2883,7 +2883,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.06478409766351786</v>
+        <v>0.06992993266465269</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>1</v>
@@ -2895,7 +2895,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>4693</v>
+        <v>4955</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.02902067179724637</v>
@@ -2904,7 +2904,7 @@
         <v>0</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1199967095360485</v>
+        <v>0.1266968767318368</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>2</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>8510</v>
+        <v>6797</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.01783924116031024</v>
@@ -2925,7 +2925,7 @@
         <v>0</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.06955500805711143</v>
+        <v>0.05555940338180065</v>
       </c>
     </row>
     <row r="36">
@@ -2942,19 +2942,19 @@
         <v>4047</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>894</v>
+        <v>931</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>12396</v>
+        <v>11430</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.04862797960489106</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.01074650653301913</v>
+        <v>0.01118249561203936</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1489355896534848</v>
+        <v>0.1373345629575971</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>2</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>6790</v>
+        <v>6674</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.05448251752103844</v>
@@ -2975,7 +2975,7 @@
         <v>0</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1736055728912764</v>
+        <v>0.1706431733253088</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>5</v>
@@ -2984,19 +2984,19 @@
         <v>6178</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>1949</v>
+        <v>2267</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>13972</v>
+        <v>13604</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.05049967203313713</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.01593277846126423</v>
+        <v>0.0185267379462212</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1142031562436798</v>
+        <v>0.1111986302229291</v>
       </c>
     </row>
     <row r="37">
@@ -3013,19 +3013,19 @@
         <v>41439</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>32612</v>
+        <v>32198</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>51459</v>
+        <v>51707</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.4978878124395392</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.3918296955847247</v>
+        <v>0.3868533342671091</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.6182702678597835</v>
+        <v>0.6212510940977172</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>14</v>
@@ -3034,19 +3034,19 @@
         <v>15876</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>10015</v>
+        <v>10151</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>22664</v>
+        <v>22893</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.4058933395515369</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2560403365051588</v>
+        <v>0.2595354058959841</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.5794517394289234</v>
+        <v>0.5853014240282368</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>55</v>
@@ -3055,19 +3055,19 @@
         <v>57315</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>45839</v>
+        <v>46290</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>69738</v>
+        <v>69240</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.468477231995597</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.374674615653852</v>
+        <v>0.3783607954012485</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.5700242088238437</v>
+        <v>0.5659517795631064</v>
       </c>
     </row>
     <row r="38">
@@ -3159,19 +3159,19 @@
         <v>46793</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>36637</v>
+        <v>36329</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>58090</v>
+        <v>56374</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.4941095403738668</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.3868674323445977</v>
+        <v>0.3836138246216809</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.6134007401055421</v>
+        <v>0.5952773627213103</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>25</v>
@@ -3180,19 +3180,19 @@
         <v>25503</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>18801</v>
+        <v>19577</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>30465</v>
+        <v>30427</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.7368262821525348</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.5431837191068143</v>
+        <v>0.5656155671849763</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.8801948511122687</v>
+        <v>0.8790930763354549</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>68</v>
@@ -3201,19 +3201,19 @@
         <v>72296</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>60938</v>
+        <v>59183</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>84746</v>
+        <v>83636</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.5590746014125991</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.4712401309242066</v>
+        <v>0.4576681308739841</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.6553507494444394</v>
+        <v>0.6467663248977554</v>
       </c>
     </row>
     <row r="40">
@@ -3233,7 +3233,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>6118</v>
+        <v>7164</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.02076817517475646</v>
@@ -3242,7 +3242,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.06460133088198243</v>
+        <v>0.07564682290228018</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>1</v>
@@ -3254,7 +3254,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>5595</v>
+        <v>5189</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.03057893277264633</v>
@@ -3263,7 +3263,7 @@
         <v>0</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1616462548534841</v>
+        <v>0.1499137205181643</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>3</v>
@@ -3272,19 +3272,19 @@
         <v>3025</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>967</v>
+        <v>906</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>9341</v>
+        <v>8138</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.02339410225960635</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.007475577178894245</v>
+        <v>0.007004431625987496</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.07223503569595126</v>
+        <v>0.06292900696768285</v>
       </c>
     </row>
     <row r="41">
@@ -3301,19 +3301,19 @@
         <v>5253</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>1869</v>
+        <v>1879</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>14448</v>
+        <v>13556</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.05547151347162537</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.0197406077747652</v>
+        <v>0.01984609500489702</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1525663368853221</v>
+        <v>0.1431484987427516</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>1</v>
@@ -3325,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>8710</v>
+        <v>8727</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.05535985670980381</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.2516540477126721</v>
+        <v>0.2521275138728548</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>5</v>
@@ -3343,19 +3343,19 @@
         <v>7169</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>1998</v>
+        <v>2301</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>16231</v>
+        <v>16035</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.05544162765372106</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.0154510518793872</v>
+        <v>0.01779333295347151</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1255178142983642</v>
+        <v>0.1240030953548008</v>
       </c>
     </row>
     <row r="42">
@@ -3372,19 +3372,19 @@
         <v>40689</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>31074</v>
+        <v>30704</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>50574</v>
+        <v>51935</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.4296507709797514</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.328124802224743</v>
+        <v>0.324221327562541</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.5340342132192409</v>
+        <v>0.5484003122690266</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>6</v>
@@ -3393,19 +3393,19 @@
         <v>6134</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>2094</v>
+        <v>2603</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>11546</v>
+        <v>11361</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1772349283650151</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.06048597701866475</v>
+        <v>0.07521413972301792</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.333578263730165</v>
+        <v>0.3282246172956347</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>40</v>
@@ -3414,19 +3414,19 @@
         <v>46823</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>34809</v>
+        <v>35282</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>58115</v>
+        <v>59278</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.3620896686740734</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.2691787707365523</v>
+        <v>0.272842360436013</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.4494125168157063</v>
+        <v>0.4584029075598992</v>
       </c>
     </row>
     <row r="43">
@@ -3518,19 +3518,19 @@
         <v>236444</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>210713</v>
+        <v>212012</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>260553</v>
+        <v>259021</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.4536028260553159</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.4042390172855154</v>
+        <v>0.4067317171948515</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.4998544087334719</v>
+        <v>0.4969152227171637</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>100</v>
@@ -3539,19 +3539,19 @@
         <v>105426</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>91442</v>
+        <v>90998</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>119146</v>
+        <v>119879</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.5656859538855671</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.4906519616421599</v>
+        <v>0.4882664780557959</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.6392999507349663</v>
+        <v>0.6432352071205067</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>320</v>
@@ -3560,19 +3560,19 @@
         <v>341870</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>315874</v>
+        <v>313171</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>369396</v>
+        <v>370846</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.4831223865246073</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.4463847584877444</v>
+        <v>0.4425648622196814</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.5220208644883696</v>
+        <v>0.5240695852800048</v>
       </c>
     </row>
     <row r="45">
@@ -3589,19 +3589,19 @@
         <v>8769</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>3929</v>
+        <v>3993</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>15655</v>
+        <v>16680</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.01682264871890045</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.007537823141747013</v>
+        <v>0.007659558849826262</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.03003334289097333</v>
+        <v>0.03199974555868624</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>6</v>
@@ -3610,19 +3610,19 @@
         <v>6295</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>2194</v>
+        <v>2623</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>12654</v>
+        <v>13763</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.033778328893069</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.01177008400198287</v>
+        <v>0.0140716728608578</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.06789742279267928</v>
+        <v>0.07384921069521141</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>15</v>
@@ -3631,19 +3631,19 @@
         <v>15064</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>8774</v>
+        <v>9377</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>24416</v>
+        <v>25136</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.02128830056042804</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.0123989486535146</v>
+        <v>0.01325117176090966</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.03450389797839659</v>
+        <v>0.03552084164926464</v>
       </c>
     </row>
     <row r="46">
@@ -3660,19 +3660,19 @@
         <v>16623</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>9517</v>
+        <v>9345</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>27313</v>
+        <v>27972</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.03189071146966756</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.01825841524786595</v>
+        <v>0.0179278768220608</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.05239900613559977</v>
+        <v>0.05366253049038423</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>7</v>
@@ -3681,19 +3681,19 @@
         <v>7989</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>3808</v>
+        <v>3908</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>17462</v>
+        <v>17313</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.04286518979561092</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.02043121873590638</v>
+        <v>0.0209714599058085</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.09369407367156479</v>
+        <v>0.09289471307502017</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>21</v>
@@ -3702,19 +3702,19 @@
         <v>24612</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>15367</v>
+        <v>15441</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>37605</v>
+        <v>38486</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.03478108206186097</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.02171597062887845</v>
+        <v>0.02182098236844061</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.05314246426150339</v>
+        <v>0.05438803455465235</v>
       </c>
     </row>
     <row r="47">
@@ -3731,19 +3731,19 @@
         <v>259422</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>236094</v>
+        <v>235114</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>286211</v>
+        <v>283873</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.4976838137561161</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.4529313151490877</v>
+        <v>0.4510505203799392</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.5490778103118851</v>
+        <v>0.54459126371636</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>63</v>
@@ -3752,19 +3752,19 @@
         <v>66659</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>54605</v>
+        <v>53058</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>80723</v>
+        <v>80847</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.3576705274257529</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.2929916387518068</v>
+        <v>0.2846914129338383</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.4331374533100448</v>
+        <v>0.4338008496423515</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>304</v>
@@ -3773,19 +3773,19 @@
         <v>326080</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>298703</v>
+        <v>298018</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>353657</v>
+        <v>352100</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.4608082308531037</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.4221191049827813</v>
+        <v>0.4211509473526426</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.4997794796577932</v>
+        <v>0.4975790333120256</v>
       </c>
     </row>
     <row r="48">
@@ -4121,19 +4121,19 @@
         <v>24796</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>15882</v>
+        <v>16819</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>34205</v>
+        <v>34511</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3276793229642114</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2098744702922148</v>
+        <v>0.2222583115403834</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4520119362374805</v>
+        <v>0.4560592191554236</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>9</v>
@@ -4142,19 +4142,19 @@
         <v>9402</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4738</v>
+        <v>4587</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>14616</v>
+        <v>14245</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4148599784466619</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.209076417679766</v>
+        <v>0.2024212169845431</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6449533228295409</v>
+        <v>0.6286038142335888</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>30</v>
@@ -4163,19 +4163,19 @@
         <v>34198</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>24721</v>
+        <v>25027</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>45009</v>
+        <v>45602</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3477703856054249</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2513994480699198</v>
+        <v>0.2545068212260864</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4577113119640829</v>
+        <v>0.4637409057966179</v>
       </c>
     </row>
     <row r="5">
@@ -4192,19 +4192,19 @@
         <v>5638</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1947</v>
+        <v>2278</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>11821</v>
+        <v>12302</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.07450281488887751</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02572601651629509</v>
+        <v>0.03010556607281773</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1562071716238499</v>
+        <v>0.162571401746287</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -4226,19 +4226,19 @@
         <v>5638</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2312</v>
+        <v>1923</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>12789</v>
+        <v>12552</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.05733340141526019</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02351034836429865</v>
+        <v>0.01955727951842504</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1300555383017852</v>
+        <v>0.1276492471057867</v>
       </c>
     </row>
     <row r="6">
@@ -4258,7 +4258,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7101</v>
+        <v>6328</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02691867622837177</v>
@@ -4267,7 +4267,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.09383606029164138</v>
+        <v>0.08361926667989573</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>0</v>
@@ -4292,7 +4292,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>6203</v>
+        <v>6237</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02071518065553071</v>
@@ -4301,7 +4301,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.06308111470957445</v>
+        <v>0.06343097707360712</v>
       </c>
     </row>
     <row r="7">
@@ -4318,19 +4318,19 @@
         <v>43202</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>33631</v>
+        <v>33908</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>52732</v>
+        <v>52078</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5708991859185393</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4444257373114827</v>
+        <v>0.4480811863392704</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6968405496673891</v>
+        <v>0.6882012942679924</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>12</v>
@@ -4339,19 +4339,19 @@
         <v>13260</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>8046</v>
+        <v>8417</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>17924</v>
+        <v>18075</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.585140021553338</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3550466771704591</v>
+        <v>0.3713961857664113</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7909235823202342</v>
+        <v>0.7975787830154574</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>51</v>
@@ -4360,19 +4360,19 @@
         <v>56462</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>45795</v>
+        <v>45583</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>66710</v>
+        <v>66456</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5741810323237841</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4656992390159052</v>
+        <v>0.4635518802773453</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6783952690661952</v>
+        <v>0.6758144800436909</v>
       </c>
     </row>
     <row r="8">
@@ -4464,19 +4464,19 @@
         <v>15866</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>9133</v>
+        <v>9095</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>22548</v>
+        <v>22022</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3511498067446725</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2021390421471637</v>
+        <v>0.2012939220608103</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.499050857652757</v>
+        <v>0.4874130621612798</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>5</v>
@@ -4485,19 +4485,19 @@
         <v>4853</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1885</v>
+        <v>1922</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>8810</v>
+        <v>9715</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2883933283011849</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1120261843817048</v>
+        <v>0.1142107202016478</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5235536495513213</v>
+        <v>0.5773372036194986</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>20</v>
@@ -4506,19 +4506,19 @@
         <v>20719</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>14036</v>
+        <v>13018</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>28968</v>
+        <v>28383</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.3341194196088809</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2263455904466939</v>
+        <v>0.2099305482538681</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4671517215506746</v>
+        <v>0.4577092544032006</v>
       </c>
     </row>
     <row r="10">
@@ -4551,7 +4551,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>4979</v>
+        <v>5284</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05919758233451135</v>
@@ -4560,7 +4560,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2958768251960664</v>
+        <v>0.3139729627500647</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1</v>
@@ -4572,7 +4572,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>5056</v>
+        <v>5091</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01606460033552516</v>
@@ -4581,7 +4581,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08153223788192968</v>
+        <v>0.08209411208161915</v>
       </c>
     </row>
     <row r="11">
@@ -4601,7 +4601,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>4323</v>
+        <v>5427</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02333552235274928</v>
@@ -4610,7 +4610,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.0956837856089947</v>
+        <v>0.1201071070454065</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>0</v>
@@ -4635,7 +4635,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>5004</v>
+        <v>5172</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01700290156936497</v>
@@ -4644,7 +4644,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.08069242442053522</v>
+        <v>0.08340154663953948</v>
       </c>
     </row>
     <row r="12">
@@ -4661,19 +4661,19 @@
         <v>28262</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>21634</v>
+        <v>21911</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>35453</v>
+        <v>35077</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.6255146709025782</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4788144777396768</v>
+        <v>0.4849486373906027</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7846690426469227</v>
+        <v>0.7763588016064531</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>11</v>
@@ -4682,19 +4682,19 @@
         <v>10979</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>7025</v>
+        <v>6297</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>14868</v>
+        <v>13979</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.6524090893643038</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.4174417456946732</v>
+        <v>0.3742158744282643</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8835063056522193</v>
+        <v>0.830684533357363</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>37</v>
@@ -4703,19 +4703,19 @@
         <v>39241</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>30527</v>
+        <v>31097</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>46126</v>
+        <v>46603</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.632813078486229</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.4922851100395377</v>
+        <v>0.5014886151271584</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.743845370996513</v>
+        <v>0.7515471080667618</v>
       </c>
     </row>
     <row r="13">
@@ -4807,19 +4807,19 @@
         <v>9799</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4812</v>
+        <v>4703</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>16723</v>
+        <v>16057</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2126648577469762</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1044281342117051</v>
+        <v>0.1020731503944343</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3629171217999621</v>
+        <v>0.3484715761392719</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>5</v>
@@ -4828,19 +4828,19 @@
         <v>4469</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1683</v>
+        <v>1679</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>8149</v>
+        <v>8338</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.314583783121826</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1184717720176625</v>
+        <v>0.1181990447804731</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5736503594174281</v>
+        <v>0.5869533243046288</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>15</v>
@@ -4849,19 +4849,19 @@
         <v>14268</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>8581</v>
+        <v>8583</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>21756</v>
+        <v>21315</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2366822943079674</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1423453875966123</v>
+        <v>0.1423668226463151</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3608899580118778</v>
+        <v>0.3535646092551985</v>
       </c>
     </row>
     <row r="15">
@@ -4881,7 +4881,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>6391</v>
+        <v>6106</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.02577610950812013</v>
@@ -4890,7 +4890,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.138689479234589</v>
+        <v>0.132520662285865</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>1</v>
@@ -4902,7 +4902,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>3796</v>
+        <v>4032</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.0634630632902182</v>
@@ -4911,7 +4911,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2671928635588235</v>
+        <v>0.2838248933042004</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>2</v>
@@ -4923,7 +4923,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>6775</v>
+        <v>7066</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.03465712957686103</v>
@@ -4932,7 +4932,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1123887425715966</v>
+        <v>0.1172044978203955</v>
       </c>
     </row>
     <row r="16">
@@ -4952,7 +4952,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6130</v>
+        <v>9092</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0340459930552548</v>
@@ -4961,7 +4961,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1330250350580418</v>
+        <v>0.19731348108306</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>8628</v>
+        <v>6626</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02602297401975083</v>
@@ -4995,7 +4995,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1431163319790756</v>
+        <v>0.1099146625875808</v>
       </c>
     </row>
     <row r="17">
@@ -5012,19 +5012,19 @@
         <v>33523</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>26987</v>
+        <v>26126</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>38830</v>
+        <v>39172</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7275130396896489</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5856629750326444</v>
+        <v>0.5669889086303674</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8426865745858687</v>
+        <v>0.8501017520438241</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>9</v>
@@ -5033,19 +5033,19 @@
         <v>8835</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>4973</v>
+        <v>5088</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>12405</v>
+        <v>12362</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6219531535879558</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3500619514091436</v>
+        <v>0.3581625249058467</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8732426231563533</v>
+        <v>0.8701943428387774</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>45</v>
@@ -5054,19 +5054,19 @@
         <v>42359</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>33861</v>
+        <v>34606</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>48131</v>
+        <v>48710</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7026376020954208</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5616875655566766</v>
+        <v>0.574043969310971</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7983889665949983</v>
+        <v>0.8079937069680219</v>
       </c>
     </row>
     <row r="18">
@@ -5158,19 +5158,19 @@
         <v>29830</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>20620</v>
+        <v>21963</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>38812</v>
+        <v>39271</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3768037964138795</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2604613625564373</v>
+        <v>0.2774294379767309</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4902608624998479</v>
+        <v>0.4960495070569748</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>15</v>
@@ -5179,19 +5179,19 @@
         <v>16746</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>11048</v>
+        <v>11166</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>22032</v>
+        <v>21573</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.5874921646301875</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3875936971760763</v>
+        <v>0.3917174033016081</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7729282488417188</v>
+        <v>0.7568327871380505</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>44</v>
@@ -5200,19 +5200,19 @@
         <v>46576</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>36797</v>
+        <v>35858</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>58013</v>
+        <v>57636</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4325804496256915</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3417510708940097</v>
+        <v>0.3330313751958639</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5388017878074808</v>
+        <v>0.5352981182141291</v>
       </c>
     </row>
     <row r="20">
@@ -5232,16 +5232,16 @@
         <v>927</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>10701</v>
+        <v>9544</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.04495477578802083</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01170497120616265</v>
+        <v>0.01171160726464596</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1351760480905682</v>
+        <v>0.1205540916719307</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1</v>
@@ -5253,7 +5253,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>7410</v>
+        <v>6339</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.04340612761560692</v>
@@ -5262,7 +5262,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2599771623632341</v>
+        <v>0.2223803490974207</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>4</v>
@@ -5271,19 +5271,19 @@
         <v>4796</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1236</v>
+        <v>1262</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>11822</v>
+        <v>10994</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.0445447939138855</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01147719609170278</v>
+        <v>0.01172462654759258</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1097980023267798</v>
+        <v>0.102103058745505</v>
       </c>
     </row>
     <row r="21">
@@ -5303,7 +5303,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>6917</v>
+        <v>6137</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.02503102583846167</v>
@@ -5312,7 +5312,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.08737643624829523</v>
+        <v>0.0775183317835159</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>0</v>
@@ -5337,7 +5337,7 @@
         <v>0</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>6571</v>
+        <v>6397</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.01840442912812788</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.06102843925410301</v>
+        <v>0.0594138719846691</v>
       </c>
     </row>
     <row r="22">
@@ -5363,19 +5363,19 @@
         <v>43796</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>34837</v>
+        <v>34849</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>52746</v>
+        <v>52407</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.553210401959638</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4400388079390718</v>
+        <v>0.4402009183619834</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6662672065114161</v>
+        <v>0.6619790650505193</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>10</v>
@@ -5384,19 +5384,19 @@
         <v>10521</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>5731</v>
+        <v>5589</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>16248</v>
+        <v>16255</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3691017077542056</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2010614466853889</v>
+        <v>0.1960815727295416</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5700346704194227</v>
+        <v>0.5702787507545016</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>52</v>
@@ -5405,19 +5405,19 @@
         <v>54317</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>43204</v>
+        <v>43505</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>64714</v>
+        <v>64722</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5044703273322951</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4012593120211766</v>
+        <v>0.4040541682182074</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6010351642104456</v>
+        <v>0.6011092736796744</v>
       </c>
     </row>
     <row r="23">
@@ -5512,7 +5512,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5091</v>
+        <v>4817</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.03099043878833968</v>
@@ -5521,7 +5521,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1648824074091666</v>
+        <v>0.1559798856401415</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1</v>
@@ -5533,7 +5533,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>3584</v>
+        <v>3631</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1231249044954466</v>
@@ -5542,7 +5542,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4975479523793427</v>
+        <v>0.5040395183961278</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>2</v>
@@ -5554,7 +5554,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>6362</v>
+        <v>6478</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.04841702348259586</v>
@@ -5563,7 +5563,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1670565715591743</v>
+        <v>0.1701149470835187</v>
       </c>
     </row>
     <row r="25">
@@ -5583,7 +5583,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>7382</v>
+        <v>7712</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.07767571722923752</v>
@@ -5592,7 +5592,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2390619817266028</v>
+        <v>0.2497498872020688</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>0</v>
@@ -5617,7 +5617,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>7780</v>
+        <v>8007</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.06298390288382708</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2043071905386776</v>
+        <v>0.2102590346001905</v>
       </c>
     </row>
     <row r="26">
@@ -5690,7 +5690,7 @@
         <v>27523</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>22237</v>
+        <v>22134</v>
       </c>
       <c r="F27" s="5" t="n">
         <v>29975</v>
@@ -5699,10 +5699,10 @@
         <v>0.8913338439824228</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.7201204913986436</v>
+        <v>0.7167899700486097</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9707201763552763</v>
+        <v>0.9707198929421684</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>7</v>
@@ -5711,7 +5711,7 @@
         <v>6316</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>3619</v>
+        <v>3572</v>
       </c>
       <c r="M27" s="5" t="n">
         <v>7203</v>
@@ -5720,7 +5720,7 @@
         <v>0.8768750955045533</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.5024520476206572</v>
+        <v>0.4959604816038722</v>
       </c>
       <c r="P27" s="6" t="n">
         <v>1</v>
@@ -5732,19 +5732,19 @@
         <v>33839</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>27916</v>
+        <v>28708</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>37112</v>
+        <v>37170</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.888599073633577</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.7330621747873647</v>
+        <v>0.7538672587004206</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.9745673308325686</v>
+        <v>0.9760662320052208</v>
       </c>
     </row>
     <row r="28">
@@ -5836,19 +5836,19 @@
         <v>17813</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>11522</v>
+        <v>11346</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>25012</v>
+        <v>25477</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3780704327655798</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2445422978704617</v>
+        <v>0.2408195937680832</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.530852707806206</v>
+        <v>0.5407312729861661</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>9</v>
@@ -5857,19 +5857,19 @@
         <v>8615</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>4768</v>
+        <v>4856</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>11552</v>
+        <v>11535</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.6389285713396506</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3536488316603625</v>
+        <v>0.3601786343826407</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8567710234992379</v>
+        <v>0.8555200671853544</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>26</v>
@@ -5878,19 +5878,19 @@
         <v>26428</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>18869</v>
+        <v>19181</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>33975</v>
+        <v>34637</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.4361097152315944</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3113752915577395</v>
+        <v>0.3165262539149907</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.5606561366443065</v>
+        <v>0.5715821692663067</v>
       </c>
     </row>
     <row r="30">
@@ -5910,7 +5910,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>5024</v>
+        <v>5266</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.02136904509119637</v>
@@ -5919,7 +5919,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1066273948891793</v>
+        <v>0.1117703476374311</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>0</v>
@@ -5944,7 +5944,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>5493</v>
+        <v>6019</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.01661456799933144</v>
@@ -5953,7 +5953,7 @@
         <v>0</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.09065246236500943</v>
+        <v>0.09932061650399707</v>
       </c>
     </row>
     <row r="31">
@@ -5973,7 +5973,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>5453</v>
+        <v>5113</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.0208739299665827</v>
@@ -5982,7 +5982,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1157343486315354</v>
+        <v>0.1085217043960526</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>0</v>
@@ -6007,7 +6007,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>4817</v>
+        <v>4918</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.01622961285181386</v>
@@ -6016,7 +6016,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.07948950001888939</v>
+        <v>0.08116025933914744</v>
       </c>
     </row>
     <row r="32">
@@ -6033,19 +6033,19 @@
         <v>27313</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>20274</v>
+        <v>20076</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>33660</v>
+        <v>34229</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.5796865921766411</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.4302994702397764</v>
+        <v>0.426104191241503</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.7144093105766776</v>
+        <v>0.7264799898041251</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>5</v>
@@ -6054,19 +6054,19 @@
         <v>4868</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1931</v>
+        <v>1948</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>8715</v>
+        <v>8627</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3610714286603493</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1432289765007621</v>
+        <v>0.1444799328146456</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.6463511683396376</v>
+        <v>0.6398213656173594</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>31</v>
@@ -6075,19 +6075,19 @@
         <v>32181</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>24587</v>
+        <v>24414</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>39656</v>
+        <v>40191</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.5310461039172604</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.4057408780274028</v>
+        <v>0.4028807617893066</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.6543981937453583</v>
+        <v>0.663234678841456</v>
       </c>
     </row>
     <row r="33">
@@ -6179,19 +6179,19 @@
         <v>44481</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>32484</v>
+        <v>32879</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>58001</v>
+        <v>58028</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.2260800945521093</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1651026355728316</v>
+        <v>0.1671114857086463</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2947949350542219</v>
+        <v>0.2949333527412464</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>27</v>
@@ -6200,19 +6200,19 @@
         <v>27070</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>18416</v>
+        <v>18627</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>35618</v>
+        <v>36167</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2979618272883626</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.2026989936078528</v>
+        <v>0.2050285440197</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.3920408213968441</v>
+        <v>0.3980832700378829</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>66</v>
@@ -6221,19 +6221,19 @@
         <v>71552</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>57873</v>
+        <v>57004</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>89441</v>
+        <v>87301</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.2487871916956156</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.201226664346567</v>
+        <v>0.198203808944699</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.3109871452960457</v>
+        <v>0.3035470833386334</v>
       </c>
     </row>
     <row r="35">
@@ -6250,19 +6250,19 @@
         <v>6448</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>2137</v>
+        <v>2204</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>12190</v>
+        <v>13044</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.03277020737966215</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.0108617407239604</v>
+        <v>0.01120288324428982</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.06195401443562859</v>
+        <v>0.06629634465235462</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>4</v>
@@ -6271,19 +6271,19 @@
         <v>4846</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>1043</v>
+        <v>1047</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>11617</v>
+        <v>13761</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.05333840529452426</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.01148519027988049</v>
+        <v>0.0115249176194801</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.127864946238185</v>
+        <v>0.1514620126403535</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>10</v>
@@ -6292,19 +6292,19 @@
         <v>11293</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>6015</v>
+        <v>5247</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>20243</v>
+        <v>20431</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.03926760317607823</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.02091426699624226</v>
+        <v>0.01824320544268367</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.07038368095622498</v>
+        <v>0.07103912439992952</v>
       </c>
     </row>
     <row r="36">
@@ -6321,19 +6321,19 @@
         <v>6392</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2156</v>
+        <v>3091</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>12781</v>
+        <v>13622</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.03248803874770422</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.01095967003847666</v>
+        <v>0.01570858242424122</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.06496097169823513</v>
+        <v>0.06923346256752008</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>2</v>
@@ -6345,7 +6345,7 @@
         <v>0</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>6205</v>
+        <v>6869</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.02174651271535539</v>
@@ -6354,7 +6354,7 @@
         <v>0</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.06830215019124196</v>
+        <v>0.07560133889759058</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>8</v>
@@ -6363,19 +6363,19 @@
         <v>8368</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>4098</v>
+        <v>4103</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>15970</v>
+        <v>16035</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.02909484181433325</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.01424758827106831</v>
+        <v>0.01426630362071453</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.05552641223338894</v>
+        <v>0.0557534508918716</v>
       </c>
     </row>
     <row r="37">
@@ -6392,19 +6392,19 @@
         <v>139430</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>125801</v>
+        <v>125673</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>152702</v>
+        <v>151279</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.7086616593205243</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.639391034314695</v>
+        <v>0.638741070767153</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.7761164137328033</v>
+        <v>0.7688861629310106</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>57</v>
@@ -6413,19 +6413,19 @@
         <v>56960</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>48482</v>
+        <v>47299</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>66463</v>
+        <v>65481</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.6269532547017578</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.5336416309817947</v>
+        <v>0.5206152651562598</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.7315531936675224</v>
+        <v>0.7207443818262186</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>176</v>
@@ -6434,19 +6434,19 @@
         <v>196390</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>177939</v>
+        <v>179356</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>210662</v>
+        <v>212429</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.682850363313973</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.6186980369080851</v>
+        <v>0.6236241710484908</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.7324739759395014</v>
+        <v>0.7386189148975456</v>
       </c>
     </row>
     <row r="38">
@@ -6538,19 +6538,19 @@
         <v>34436</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>24903</v>
+        <v>25238</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>44251</v>
+        <v>44254</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.3814981073402751</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.2758899110180691</v>
+        <v>0.2795994003985467</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.4902300222101466</v>
+        <v>0.4902707815193211</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>19</v>
@@ -6559,19 +6559,19 @@
         <v>20498</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>14434</v>
+        <v>14065</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>27423</v>
+        <v>27500</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.4637903908490342</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.3265923069634129</v>
+        <v>0.3182331028442876</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.6204641439317022</v>
+        <v>0.6222168925105721</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>52</v>
@@ -6580,19 +6580,19 @@
         <v>54934</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>44528</v>
+        <v>44067</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>67742</v>
+        <v>67076</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.4085472656611672</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.331158596393728</v>
+        <v>0.3277247383570253</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.5037977977904046</v>
+        <v>0.4988445636231064</v>
       </c>
     </row>
     <row r="40">
@@ -6609,19 +6609,19 @@
         <v>4123</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>1045</v>
+        <v>1066</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>9803</v>
+        <v>10268</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.04567197602162401</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.01157316470296692</v>
+        <v>0.01180751865171479</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.1086004107821935</v>
+        <v>0.1137511530410623</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>2</v>
@@ -6633,7 +6633,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>7289</v>
+        <v>6817</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.04618271042275171</v>
@@ -6642,7 +6642,7 @@
         <v>0</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1649282985003978</v>
+        <v>0.1542303670974219</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>6</v>
@@ -6651,19 +6651,19 @@
         <v>6164</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>2133</v>
+        <v>2888</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>11960</v>
+        <v>12453</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.04583985246260962</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.01586109649659022</v>
+        <v>0.02148058180946405</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.0889485278060532</v>
+        <v>0.09261475073377096</v>
       </c>
     </row>
     <row r="41">
@@ -6683,7 +6683,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>4981</v>
+        <v>4162</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.01128718964619238</v>
@@ -6692,7 +6692,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.05518147598261024</v>
+        <v>0.04610923242480706</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>1</v>
@@ -6704,7 +6704,7 @@
         <v>0</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>4972</v>
+        <v>4205</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.02209134562326625</v>
@@ -6713,7 +6713,7 @@
         <v>0</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1124954519703124</v>
+        <v>0.095131709145393</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>2</v>
@@ -6725,7 +6725,7 @@
         <v>0</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>6975</v>
+        <v>6088</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.01483847432425552</v>
@@ -6734,7 +6734,7 @@
         <v>0</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.05187322309494897</v>
+        <v>0.04527735267204066</v>
       </c>
     </row>
     <row r="42">
@@ -6751,19 +6751,19 @@
         <v>50688</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>41359</v>
+        <v>40648</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>60673</v>
+        <v>59661</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.5615427269919085</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.4581955466285769</v>
+        <v>0.4503221694939956</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.6721603012239078</v>
+        <v>0.6609521580028956</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>20</v>
@@ -6772,19 +6772,19 @@
         <v>20681</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>13996</v>
+        <v>14149</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>27044</v>
+        <v>27400</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.4679355531049478</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.3166739886662665</v>
+        <v>0.3201278268262355</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.6119057368904537</v>
+        <v>0.6199424005943199</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>67</v>
@@ -6793,19 +6793,19 @@
         <v>71369</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>59348</v>
+        <v>59625</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>83238</v>
+        <v>81949</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.5307744075519676</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.4413701981422065</v>
+        <v>0.4434329320723938</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.6190415500885965</v>
+        <v>0.6094584532973725</v>
       </c>
     </row>
     <row r="43">
@@ -6897,19 +6897,19 @@
         <v>177979</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>156033</v>
+        <v>157568</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>201450</v>
+        <v>202758</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.2912388510612459</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.2553270067643454</v>
+        <v>0.2578378081633693</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.3296462014599373</v>
+        <v>0.3317864767582117</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>90</v>
@@ -6918,19 +6918,19 @@
         <v>92540</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>78650</v>
+        <v>78750</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>107412</v>
+        <v>109750</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.3889281141517202</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.3305529166898577</v>
+        <v>0.3309722551888302</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.4514325191309559</v>
+        <v>0.4612604407631996</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>255</v>
@@ -6939,19 +6939,19 @@
         <v>270519</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>242610</v>
+        <v>243683</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>298240</v>
+        <v>299601</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.3186151258598844</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.2857447501239965</v>
+        <v>0.2870075392705072</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.3512646526950308</v>
+        <v>0.3528682208629916</v>
       </c>
     </row>
     <row r="45">
@@ -6968,19 +6968,19 @@
         <v>24360</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>15973</v>
+        <v>15578</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>36268</v>
+        <v>35860</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.03986181486282008</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.02613780703477643</v>
+        <v>0.02549105218070838</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.059347590988165</v>
+        <v>0.05867994631603259</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>9</v>
@@ -6989,19 +6989,19 @@
         <v>10022</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>4956</v>
+        <v>4792</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>18089</v>
+        <v>18339</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.04212100615683986</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.02083048315497127</v>
+        <v>0.02013871448798886</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.07602398900287989</v>
+        <v>0.07707440343121207</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>31</v>
@@ -7010,19 +7010,19 @@
         <v>34382</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>23896</v>
+        <v>23317</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>47971</v>
+        <v>47268</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.04049492683164</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.02814403542118097</v>
+        <v>0.02746286021063386</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.05650034889001579</v>
+        <v>0.05567218289187773</v>
       </c>
     </row>
     <row r="46">
@@ -7039,19 +7039,19 @@
         <v>15036</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>8181</v>
+        <v>8422</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>24311</v>
+        <v>24208</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.02460464719373413</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.01338682772152175</v>
+        <v>0.01378169562530552</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.03978164301280034</v>
+        <v>0.03961262009515738</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>3</v>
@@ -7060,19 +7060,19 @@
         <v>2952</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>931</v>
+        <v>938</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>7876</v>
+        <v>8554</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.01240714403819</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.003913665854314556</v>
+        <v>0.003940778338591195</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.03310147961271302</v>
+        <v>0.03595178866183529</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>17</v>
@@ -7081,19 +7081,19 @@
         <v>17988</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>10766</v>
+        <v>11355</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>29066</v>
+        <v>28604</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.02118643942268998</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.0126801072154673</v>
+        <v>0.01337363654235182</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.03423417896895994</v>
+        <v>0.03368904420274831</v>
       </c>
     </row>
     <row r="47">
@@ -7110,19 +7110,19 @@
         <v>393736</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>368270</v>
+        <v>368374</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>417181</v>
+        <v>418095</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.6442946868821999</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.602624421515691</v>
+        <v>0.6027936087719732</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.6826598673256855</v>
+        <v>0.6841552642372618</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>131</v>
@@ -7131,19 +7131,19 @@
         <v>132421</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>116397</v>
+        <v>116502</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>146734</v>
+        <v>147292</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.5565437356532499</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.4891951903136465</v>
+        <v>0.4896382525563983</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.6166962546799628</v>
+        <v>0.6190421380786491</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>493</v>
@@ -7152,19 +7152,19 @@
         <v>526157</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>496630</v>
+        <v>496723</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>554090</v>
+        <v>554121</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.6197035078857857</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.5849270029504277</v>
+        <v>0.585036925113774</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.6526028133892374</v>
+        <v>0.6526394557340622</v>
       </c>
     </row>
     <row r="48">
